--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1001494.221286035</v>
+        <v>998934.0371261693</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673449</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>123.196580788893</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>20.75054951475581</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1776514406544</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.72444917934274</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>319.4282037200202</v>
+        <v>223.3922079480043</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.15227500668264</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>78.862615527507</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.0096761768069</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>114.5059581839134</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>228.3421291463079</v>
+        <v>76.898017641465</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43537938076361</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299791</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842586</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>211.7064890199305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503541</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.1467913932351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634793</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>75.96788793061776</v>
+        <v>99.9742741983339</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012584</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>85.08368458989543</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881298</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922651</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274037</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>97.02629574295564</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.4306205949047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699791</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.53432244437111</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.36264995190464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763399</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>195.1384308315443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.45282559760414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360.644130935924</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>1747.243971000046</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1747.243971000046</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103101</v>
+        <v>790.7764984014356</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1615.512333024657</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1615.512333024657</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.512333024657</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.393995528494</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.709507322607</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>782.2923372856468</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X4" t="n">
-        <v>782.2923372856468</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y4" t="n">
-        <v>782.2923372856468</v>
+        <v>349.6600800990973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1112.520734025447</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1112.520734025447</v>
       </c>
       <c r="D5" t="n">
-        <v>684.90618255198</v>
+        <v>754.2550354186963</v>
       </c>
       <c r="E5" t="n">
-        <v>684.90618255198</v>
+        <v>754.2550354186963</v>
       </c>
       <c r="F5" t="n">
-        <v>677.9606818027765</v>
+        <v>343.2691306290887</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816088</v>
@@ -4577,40 +4577,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.125824262338</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1502.660066001258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1112.520734025447</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458916</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.1787799847226</v>
+        <v>517.1895564061562</v>
       </c>
       <c r="C7" t="n">
-        <v>469.2425970568157</v>
+        <v>348.2533734782493</v>
       </c>
       <c r="D7" t="n">
-        <v>319.12595764448</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>745.1791073041735</v>
       </c>
       <c r="X7" t="n">
-        <v>819.8272448149623</v>
+        <v>517.1895564061562</v>
       </c>
       <c r="Y7" t="n">
-        <v>819.8272448149623</v>
+        <v>517.1895564061562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.099343395678</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.099343395678</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2446.676744376002</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2237.931102981826</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>1984.350042246006</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.250531453059</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.1547555788524</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>307.2185726509455</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1106.585350450639</v>
+        <v>1139.164126134685</v>
       </c>
       <c r="V10" t="n">
-        <v>1106.585350450639</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W10" t="n">
-        <v>1106.585350450639</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X10" t="n">
-        <v>878.5957995526222</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y10" t="n">
-        <v>657.8032204090921</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1739.060943173575</v>
+        <v>1535.258832689346</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.098426233163</v>
+        <v>1166.296315748934</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>808.0306171421839</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>422.2423645439399</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950448</v>
+        <v>393.840852803538</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469189</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469189</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386835</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420326</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455664</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455664</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088273</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744702</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474588</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.800115213508</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.660783237696</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104395</v>
+        <v>900.4499396649587</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754329</v>
+        <v>1337.658805224964</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105396</v>
+        <v>1878.96711257603</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971146</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.2232755143372</v>
+        <v>385.5135230760922</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864303</v>
+        <v>216.5773401481853</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888922</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551102</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.10273901427</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551106</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991395</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785508</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.716678748547</v>
+        <v>834.2956531176396</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.871740344577</v>
+        <v>606.3061022196223</v>
       </c>
       <c r="Y13" t="n">
-        <v>1108.871740344577</v>
+        <v>385.5135230760922</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.4084247491294</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>473.4722418212225</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>323.3556024088867</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935358</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373411</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.566799893811</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630042</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350974</v>
+        <v>344.91741781216</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227616</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>261.846482147427</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.846482147427</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.846482147427</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>261.846482147427</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764187969</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>402.72459349089</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.72459349089</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.72459349089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.72459349089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782954</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284093</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005024</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881665</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057735</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.142874958649</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6458,19 +6458,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D31" t="n">
-        <v>444.701316492522</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297688</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,16 +7014,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998255</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179088</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179088</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900019</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776661</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952729</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>295.5818533952729</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>73.66059580999757</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>154.0169020165191</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179987</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024422</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.50016306149377</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.2476622399194</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395374</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14.00316636910665</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372922</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.68518878870218</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537622</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>70.46607471595141</v>
+        <v>46.45968844823527</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465663</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>55.21102825632843</v>
+        <v>140.2947128462257</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392193779</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459085</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>120.3791545843326</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0033420516645</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345295211</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012481</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.08115057384124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823402</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418725</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>30.57122455749288</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>106.0713126946653</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891176.6704067817</v>
+        <v>891176.6704067808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969925.1095807727</v>
+        <v>969925.109580773</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.3032431429</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>975285.303243143</v>
+        <v>975285.3032431429</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.3032431429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795043</v>
+        <v>405380.8397795038</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
@@ -26329,31 +26329,31 @@
         <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="P2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295035</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357073</v>
+        <v>325187.1190357047</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051394</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557952</v>
+        <v>11167.23623557868</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456841</v>
+        <v>84929.59434456784</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="E4" t="n">
         <v>7408.247504413624</v>
@@ -26442,7 +26442,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26454,7 +26454,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,13 +26470,13 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214717</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889230.4461371531</v>
+        <v>-889230.4461371533</v>
       </c>
       <c r="C6" t="n">
-        <v>225521.3374387671</v>
+        <v>225521.3374387667</v>
       </c>
       <c r="D6" t="n">
-        <v>225521.3374387668</v>
+        <v>225521.3374387666</v>
       </c>
       <c r="E6" t="n">
-        <v>-13308.24892276383</v>
+        <v>-13518.21316660637</v>
       </c>
       <c r="F6" t="n">
-        <v>167309.5629414476</v>
+        <v>167263.6579458794</v>
       </c>
       <c r="G6" t="n">
-        <v>324133.4953082972</v>
+        <v>324098.7573828623</v>
       </c>
       <c r="H6" t="n">
-        <v>335300.7315438768</v>
+        <v>335265.993618441</v>
       </c>
       <c r="I6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184409</v>
       </c>
       <c r="J6" t="n">
-        <v>167695.5537338941</v>
+        <v>167660.8158084584</v>
       </c>
       <c r="K6" t="n">
-        <v>335300.7315438768</v>
+        <v>335265.9936184409</v>
       </c>
       <c r="L6" t="n">
-        <v>335300.7315438767</v>
+        <v>335265.9936184409</v>
       </c>
       <c r="M6" t="n">
-        <v>250371.1371993083</v>
+        <v>250336.3992738728</v>
       </c>
       <c r="N6" t="n">
-        <v>291518.3249853879</v>
+        <v>291483.5870599514</v>
       </c>
       <c r="O6" t="n">
-        <v>332277.4335666518</v>
+        <v>332242.6956412163</v>
       </c>
       <c r="P6" t="n">
-        <v>335300.7315438767</v>
+        <v>335265.9936184409</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770175</v>
+        <v>278.1053753770151</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086098</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086098</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086098</v>
+        <v>340.8034957086076</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>242.0763109821146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>328.4904192026572</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.65432874128291</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.83312324023086</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>92.11949905293375</v>
+        <v>188.1554948249497</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2816876398865</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>173.275027796321</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.72416548667366</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.946257214880916</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>57.88502497489273</v>
+        <v>209.3291364797356</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.864569773379241e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.398696565172219e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-4.441960414185817e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.756355226869346e-12</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.74074681980264e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.426059932593491e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29709,13 +29709,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-6.159093390701584e-13</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-8.432048548124571e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.534772309241817e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202556</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>583.7591506492959</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34790,10 +34790,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156656</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>451.6972626543692</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063673</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543679</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458966</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>441.6251167272776</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869242</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191331</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066221</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989909</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
